--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_ex06_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_ex06_end.xlsx
@@ -44,7 +44,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Skadi tries to exchange the "Treasure Key" for information about Specter from Kal'tsit.
+    <t xml:space="preserve">Skadi tries to exchange the 'Treasure Key' for information about Specter from Kal'tsit.
 </t>
   </si>
   <si>
